--- a/cart_report.xlsx
+++ b/cart_report.xlsx
@@ -633,13 +633,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5">
-        <v>0.9712055129338365</v>
+        <v>0.9737174218898829</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -668,13 +668,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9664285714285714</v>
+        <v>0.9264285714285714</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
       </c>
       <c r="I6">
-        <v>0.9864084822207655</v>
+        <v>0.9570521398934787</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9278571428571428</v>
+        <v>0.9478571428571428</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7">
-        <v>0.9693524139603245</v>
+        <v>0.9839147155248877</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -738,13 +738,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9785714285714285</v>
+        <v>0.9764285714285714</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8">
-        <v>0.9612917005905744</v>
+        <v>0.9595425914428009</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -773,13 +773,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.95</v>
+        <v>0.9314285714285714</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
       <c r="I9">
-        <v>0.9792742928875874</v>
+        <v>0.9757416146699933</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -843,13 +843,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.945</v>
+        <v>0.9507142857142857</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11">
-        <v>0.9710749690068549</v>
+        <v>0.9692530767779589</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -878,13 +878,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9507142857142857</v>
+        <v>0.9314285714285714</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12">
-        <v>0.9657890443071669</v>
+        <v>0.9722338959612816</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -913,13 +913,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9357142857142857</v>
+        <v>0.9557142857142857</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="I13">
-        <v>0.978265392850545</v>
+        <v>0.9815145730838175</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -1018,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9535714285714285</v>
+        <v>0.9614285714285714</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16">
-        <v>0.979014085956341</v>
+        <v>0.9831423389731938</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -1053,13 +1053,13 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9507142857142857</v>
+        <v>0.9607142857142857</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="I17">
-        <v>0.9968130181496914</v>
+        <v>0.9974540276653338</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -1088,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9478571428571428</v>
+        <v>0.9392857142857143</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="I18">
-        <v>0.9783937267823984</v>
+        <v>0.9805388373224927</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -1117,19 +1117,19 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.9603580562659847</v>
+        <v>0.921994884910486</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9314285714285714</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
       </c>
       <c r="I19">
-        <v>0.9136563129379893</v>
+        <v>0.8933328783999316</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -1152,19 +1152,19 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0.984251968503937</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9478571428571428</v>
+        <v>0.9485714285714286</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
       </c>
       <c r="I20">
-        <v>0.9384109185350115</v>
+        <v>0.9432262158276035</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -1187,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.8539325842696632</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9157142857142857</v>
+        <v>0.9257142857142857</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21">
-        <v>0.9514532861078204</v>
+        <v>0.9300671349943236</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
